--- a/Producto/Web/Casos de prueba/Planilla de Bugs Hisoria 3.xlsx
+++ b/Producto/Web/Casos de prueba/Planilla de Bugs Hisoria 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>Fecha</t>
   </si>
@@ -43,20 +43,68 @@
     <t>Media</t>
   </si>
   <si>
-    <t>No se muestra el mensaje</t>
-  </si>
-  <si>
     <t>La playa no se grabo</t>
   </si>
   <si>
     <t>Alta</t>
+  </si>
+  <si>
+    <t>Ignacio Frigerio</t>
+  </si>
+  <si>
+    <t>No se muestra el mensaje: "La playa se modificó exitosamente"</t>
+  </si>
+  <si>
+    <t>No se muestra el mensaje: "La playa de estacionamiento ha sido guardada con éxito"</t>
+  </si>
+  <si>
+    <t>Ezequiel Bar Cöch</t>
+  </si>
+  <si>
+    <t>No se muestra el mensaje: "La playa CPA_Playa1 ha sido eliminada con éxito"</t>
+  </si>
+  <si>
+    <t>No se muestra la tabla que contiene la playa</t>
+  </si>
+  <si>
+    <t>Se muestra el formulario, pero sin la provincia, departamento y ciudad.</t>
+  </si>
+  <si>
+    <t>Botones con imagen incorrecta</t>
+  </si>
+  <si>
+    <t>Cosmetico</t>
+  </si>
+  <si>
+    <t>Tamaño de grilla</t>
+  </si>
+  <si>
+    <t>Tamaño de popup</t>
+  </si>
+  <si>
+    <t>Titulo de Popup</t>
+  </si>
+  <si>
+    <t>Tamaño de Boton</t>
+  </si>
+  <si>
+    <t>Ubicación de Boton</t>
+  </si>
+  <si>
+    <t>Boton de Guarda desaparece</t>
+  </si>
+  <si>
+    <t>Mapa mal ubicado en el layout</t>
+  </si>
+  <si>
+    <t>Color de boton Editar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,38 +120,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -191,11 +209,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF548DD4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF548DD4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4BACC6"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF548DD4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -204,49 +282,58 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G13"/>
+  <dimension ref="B1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,142 +677,481 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16">
+      <c r="B3" s="9">
         <v>41898</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="8">
         <v>41907</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14">
-        <v>41907</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="9">
+        <v>41898</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8">
+        <v>41907</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>41898</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="13">
+        <v>41907</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>41898</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="13">
+        <v>41907</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>41898</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="13">
+        <v>41907</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
+        <v>41898</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="13">
+        <v>41907</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
+        <v>41898</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="13">
+        <v>41907</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>41898</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="13">
+        <v>41907</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
+        <v>41907</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8">
+        <v>41914</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
+        <v>41907</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="10">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="13">
+        <v>41914</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8">
+        <v>41907</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="13">
+        <v>41914</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
+        <v>41907</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="13">
+        <v>41914</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8">
+        <v>41907</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="13">
+        <v>41914</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>41907</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="13">
+        <v>41914</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8">
+        <v>41927</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8">
+        <v>41932</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8">
+        <v>41927</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="8">
+        <v>41932</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8">
         <v>41927</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14">
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8">
+        <v>41932</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8">
         <v>41927</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="14">
+      <c r="D20" s="10">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="13">
         <v>41932</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14">
+    <row r="21" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="8">
         <v>41927</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="10">
+        <v>4</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G21" s="13">
+        <v>41932</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="8">
+        <v>41927</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="14">
+      <c r="D22" s="10">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="13">
         <v>41932</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+    <row r="23" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
+        <v>41927</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="10">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="13">
+        <v>41932</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="16">
+        <v>41927</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="18">
+        <v>4</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="20">
+        <v>41932</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="15"/>
     </row>
   </sheetData>
+  <sortState ref="B3:G14">
+    <sortCondition ref="B3:B14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
